--- a/SistemaDeCitasConDjango-main/Plantilla_base.xlsx
+++ b/SistemaDeCitasConDjango-main/Plantilla_base.xlsx
@@ -25,7 +25,7 @@
     <t xml:space="preserve">activo</t>
   </si>
   <si>
-    <t xml:space="preserve">Dra. Alba bernal </t>
+    <t xml:space="preserve">Dr. Carlos Giraldo </t>
   </si>
 </sst>
 </file>
@@ -37,7 +37,7 @@
     <numFmt numFmtId="165" formatCode="hh:mm"/>
     <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -65,6 +65,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="1"/>
     </font>
     <font>
@@ -118,28 +125,32 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -335,292 +346,292 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I8" activeCellId="0" sqref="I8"/>
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="11.39"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B1" s="2" t="n">
+      <c r="A1" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1" s="3" t="n">
         <v>0.333333333333333</v>
       </c>
-      <c r="C1" s="2" t="n">
+      <c r="C1" s="3" t="n">
         <v>0.375</v>
       </c>
-      <c r="D1" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B2" s="2" t="n">
+      <c r="A2" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B2" s="3" t="n">
         <v>0.375</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="D2" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B3" s="2" t="n">
+      <c r="A3" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B3" s="3" t="n">
         <v>0.416666666666667</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="D3" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="D3" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B4" s="2" t="n">
+      <c r="A4" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B4" s="3" t="n">
         <v>0.458333333333333</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="D4" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="D4" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B5" s="2" t="n">
+      <c r="A5" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B5" s="3" t="n">
         <v>0.5</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="D5" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="D5" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="n">
+      <c r="A6" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="n">
         <v>0.541666666666667</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="D6" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="D6" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2" t="n">
+      <c r="A7" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B7" s="3" t="n">
         <v>0.583333333333333</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>0.625</v>
       </c>
-      <c r="D7" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="D7" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B8" s="2" t="n">
+      <c r="A8" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B8" s="3" t="n">
         <v>0.625</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="D8" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5"/>
+      <c r="D8" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B9" s="2" t="n">
+      <c r="A9" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B9" s="3" t="n">
         <v>0.666666666666667</v>
       </c>
-      <c r="C9" s="2" t="n">
+      <c r="C9" s="3" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="D9" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="D9" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B10" s="2" t="n">
+      <c r="A10" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B10" s="3" t="n">
         <v>0.708333333333333</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="D10" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="D10" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B11" s="2" t="n">
+      <c r="A11" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B11" s="3" t="n">
         <v>0.75</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="D11" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="D11" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B12" s="2" t="n">
+      <c r="A12" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B12" s="3" t="n">
         <v>0.791666666666667</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="D12" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="D12" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B13" s="2" t="n">
+      <c r="A13" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="n">
         <v>0.833333333333333</v>
       </c>
-      <c r="C13" s="2" t="n">
+      <c r="C13" s="3" t="n">
         <v>0.875</v>
       </c>
-      <c r="D13" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="4" t="s">
+      <c r="D13" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B14" s="2" t="n">
+      <c r="A14" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B14" s="3" t="n">
         <v>0.875</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>0.916666666666667</v>
       </c>
-      <c r="D14" s="3" t="n">
-        <v>45666</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="4" t="s">
+      <c r="D14" s="4" t="n">
+        <v>45668</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>1</v>
       </c>
     </row>
